--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/13.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/13.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1998604476102872</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.462090550124006</v>
+        <v>-2.549440847258801</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02669164321388705</v>
+        <v>-0.08664997811514369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1802482729510574</v>
+        <v>0.2159522889661387</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2011276589008067</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.661317762248725</v>
+        <v>-2.759849107663698</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.08609223974441656</v>
+        <v>-0.1336825072675856</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2347912894831336</v>
+        <v>0.2701930755433969</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2053138892099134</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.949366999983875</v>
+        <v>-3.056426486297846</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1647304299207591</v>
+        <v>-0.247424633693646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2441501977458584</v>
+        <v>0.2829816367716662</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.211481465604269</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.164243737570999</v>
+        <v>-3.285218212215376</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2602876573745516</v>
+        <v>-0.3344332795751681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2564817639216733</v>
+        <v>0.3007635624708432</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2155719870845201</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.233123696331753</v>
+        <v>-3.33296178478809</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3259474800708067</v>
+        <v>-0.3839420502897911</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2943948326982995</v>
+        <v>0.3314362527646532</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2109823160941413</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.011440214544813</v>
+        <v>-3.123141923763828</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3739670017327029</v>
+        <v>-0.4590805051922255</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2867149797401197</v>
+        <v>0.3302287929934716</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1958654318840804</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.638015394717822</v>
+        <v>-2.769762104176923</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4835406908592189</v>
+        <v>-0.5619394331486525</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2821158282537573</v>
+        <v>0.3069804472419325</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1710734509886091</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.220303666173344</v>
+        <v>-2.34266883662431</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4821113037782193</v>
+        <v>-0.5592821456231986</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2888656305780282</v>
+        <v>0.2991896306288436</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1349347199075802</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.837365903010037</v>
+        <v>-1.953879200712642</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5387465692245678</v>
+        <v>-0.6439926758096304</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3018118770001156</v>
+        <v>0.3141230025026578</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08042040826643056</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.327547770674629</v>
+        <v>-1.440026955502053</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6888862345088911</v>
+        <v>-0.7850698225936834</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3216407901227467</v>
+        <v>0.3245448257755641</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.001589198213982227</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7517048036202378</v>
+        <v>-0.9085504697861048</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8619632553013901</v>
+        <v>-0.9432309920894592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3740813374039144</v>
+        <v>0.3654962546293713</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1024676723654231</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2459456049775555</v>
+        <v>-0.4179305097980547</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.161935975770946</v>
+        <v>-1.263508601359282</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4111709390572681</v>
+        <v>0.3993737504827258</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2320537660692248</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3523806426287384</v>
+        <v>0.1885238255303279</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.59828594821992</v>
+        <v>-1.693216815042712</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4971327304576086</v>
+        <v>0.4954770359225182</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3832106733002336</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9591547284890301</v>
+        <v>0.8063198144288892</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.989099940809633</v>
+        <v>-2.092794016274059</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5956611557764003</v>
+        <v>0.569921967981771</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5509686460462471</v>
       </c>
       <c r="E16" t="n">
-        <v>1.463033385190622</v>
+        <v>1.285455036133851</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.364635260152032</v>
+        <v>-2.489403669760635</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7246929058104566</v>
+        <v>0.6830012325745587</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7320747510821384</v>
       </c>
       <c r="E17" t="n">
-        <v>1.996191846307297</v>
+        <v>1.840651463134702</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.725453294738072</v>
+        <v>-2.844480065229176</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8388044244035169</v>
+        <v>0.8023397233330721</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9304505630816972</v>
       </c>
       <c r="E18" t="n">
-        <v>2.409379615842095</v>
+        <v>2.256118367739409</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.080670584847385</v>
+        <v>-3.175010862217405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9834353282408417</v>
+        <v>0.9289448734400382</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.154364111926168</v>
       </c>
       <c r="E19" t="n">
-        <v>2.862159509458064</v>
+        <v>2.70894936303856</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.35419453415013</v>
+        <v>-3.445335116128924</v>
       </c>
       <c r="G19" t="n">
-        <v>1.163945453864157</v>
+        <v>1.103919956750719</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.402489518515174</v>
       </c>
       <c r="E20" t="n">
-        <v>3.167378182718255</v>
+        <v>3.036722859207109</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.621360704041013</v>
+        <v>-3.71330212239767</v>
       </c>
       <c r="G20" t="n">
-        <v>1.309294701362209</v>
+        <v>1.239967237861591</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.667374466416548</v>
       </c>
       <c r="E21" t="n">
-        <v>3.524440243590432</v>
+        <v>3.371487065634928</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.832493148299001</v>
+        <v>-3.939509563194291</v>
       </c>
       <c r="G21" t="n">
-        <v>1.428539749042904</v>
+        <v>1.360333602476104</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.933830711761287</v>
       </c>
       <c r="E22" t="n">
-        <v>3.852513049617617</v>
+        <v>3.694232156178387</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.013645695082317</v>
+        <v>-4.104677503478338</v>
       </c>
       <c r="G22" t="n">
-        <v>1.500047064343248</v>
+        <v>1.422420687493906</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.18368924869491</v>
       </c>
       <c r="E23" t="n">
-        <v>4.040450439879384</v>
+        <v>3.906492487586602</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.136574444096374</v>
+        <v>-4.204407548375947</v>
       </c>
       <c r="G23" t="n">
-        <v>1.581602430605227</v>
+        <v>1.514450438760063</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.401439546455854</v>
       </c>
       <c r="E24" t="n">
-        <v>4.204962818570613</v>
+        <v>4.060327534589016</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.182779125981271</v>
+        <v>-4.254996024653797</v>
       </c>
       <c r="G24" t="n">
-        <v>1.634589035872394</v>
+        <v>1.562559023355504</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.571900742327085</v>
       </c>
       <c r="E25" t="n">
-        <v>4.286937218634682</v>
+        <v>4.165021742995715</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.214449759145217</v>
+        <v>-4.27552649088411</v>
       </c>
       <c r="G25" t="n">
-        <v>1.640275923186483</v>
+        <v>1.576645567336592</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.691293821088703</v>
       </c>
       <c r="E26" t="n">
-        <v>4.314323340675856</v>
+        <v>4.194920607801343</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.139239031862282</v>
+        <v>-4.176965944507318</v>
       </c>
       <c r="G26" t="n">
-        <v>1.592135217533042</v>
+        <v>1.521527291856697</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.759283514359871</v>
       </c>
       <c r="E27" t="n">
-        <v>4.270796386989686</v>
+        <v>4.144509527366538</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.055921387554577</v>
+        <v>-4.099973228529429</v>
       </c>
       <c r="G27" t="n">
-        <v>1.561919522291686</v>
+        <v>1.502045870179702</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.778313902383707</v>
       </c>
       <c r="E28" t="n">
-        <v>4.219044982407428</v>
+        <v>4.101366566328277</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.885892217151851</v>
+        <v>-3.930208326831157</v>
       </c>
       <c r="G28" t="n">
-        <v>1.479479366886618</v>
+        <v>1.401092304981911</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.754652848042562</v>
       </c>
       <c r="E29" t="n">
-        <v>4.045033530836747</v>
+        <v>3.941939535137684</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.708700780839171</v>
+        <v>-3.760335381574157</v>
       </c>
       <c r="G29" t="n">
-        <v>1.376807325085827</v>
+        <v>1.300915485368484</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.692151531041343</v>
       </c>
       <c r="E30" t="n">
-        <v>3.933636241644686</v>
+        <v>3.835659714504258</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.552005499626668</v>
+        <v>-3.599627888207837</v>
       </c>
       <c r="G30" t="n">
-        <v>1.286312084363215</v>
+        <v>1.206751143793418</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.599518697166609</v>
       </c>
       <c r="E31" t="n">
-        <v>3.774137668097638</v>
+        <v>3.687000537984116</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.401048937435481</v>
+        <v>-3.441249901570561</v>
       </c>
       <c r="G31" t="n">
-        <v>1.194699906851058</v>
+        <v>1.105279261523354</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.483182228804226</v>
       </c>
       <c r="E32" t="n">
-        <v>3.594085997574868</v>
+        <v>3.533324636223611</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.226788547665301</v>
+        <v>-3.235912388185389</v>
       </c>
       <c r="G32" t="n">
-        <v>1.072825312558636</v>
+        <v>0.9858955092740229</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.350334319047465</v>
       </c>
       <c r="E33" t="n">
-        <v>3.419052512340552</v>
+        <v>3.349838932591024</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.096247107905245</v>
+        <v>-3.086417334133202</v>
       </c>
       <c r="G33" t="n">
-        <v>1.019034220793378</v>
+        <v>0.9384892078103083</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.209978828862091</v>
       </c>
       <c r="E34" t="n">
-        <v>3.196900355116429</v>
+        <v>3.166458352420983</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.072930869917478</v>
+        <v>-3.080469828234885</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9209029285553131</v>
+        <v>0.8452592970134243</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.065646419172455</v>
       </c>
       <c r="E35" t="n">
-        <v>2.880056778956424</v>
+        <v>2.883465991248695</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.966705071063416</v>
+        <v>-2.966360499713961</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8725359154477805</v>
+        <v>0.7951679671105286</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.924924302755725</v>
       </c>
       <c r="E36" t="n">
-        <v>2.607725688943951</v>
+        <v>2.591762983166046</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.912806665763476</v>
+        <v>-2.906371503802796</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8024185659299812</v>
+        <v>0.7344533272981812</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.789768613138871</v>
       </c>
       <c r="E37" t="n">
-        <v>2.324104047044482</v>
+        <v>2.3242938532963</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.858230798149354</v>
+        <v>-2.84414863431254</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7436793711846333</v>
+        <v>0.6946553364361919</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.662125213797742</v>
       </c>
       <c r="E38" t="n">
-        <v>2.021252111739654</v>
+        <v>2.011491690251929</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.788295954642918</v>
+        <v>-2.770650543440241</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6706652862544712</v>
+        <v>0.6191971310018486</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.544466322190343</v>
       </c>
       <c r="E39" t="n">
-        <v>1.72663192757137</v>
+        <v>1.731232539105823</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.667258697930633</v>
+        <v>-2.639037428381458</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6337903116704811</v>
+        <v>0.5964846228996729</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.434360822837408</v>
       </c>
       <c r="E40" t="n">
-        <v>1.46455621534944</v>
+        <v>1.50580111386952</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.553350856046254</v>
+        <v>-2.52072754150299</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5652804751007722</v>
+        <v>0.5243480268721468</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.333647272340436</v>
       </c>
       <c r="E41" t="n">
-        <v>1.222697789042323</v>
+        <v>1.250013828775134</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.44445462923392</v>
+        <v>-2.406340073820748</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4966684351646997</v>
+        <v>0.460475303039164</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.239090251151981</v>
       </c>
       <c r="E42" t="n">
-        <v>1.001142791487382</v>
+        <v>1.036730003655191</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.326419961420588</v>
+        <v>-2.283582150433327</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4280651555171727</v>
+        <v>0.3991445229324532</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.149935935599379</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7886517724808031</v>
+        <v>0.8357631442301541</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.229974294703477</v>
+        <v>-2.186584585537853</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3624695749369176</v>
+        <v>0.3455227967457403</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.066238253382557</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6210499320292118</v>
+        <v>0.6760207426519242</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.169321706934994</v>
+        <v>-2.119607799463598</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2698718649633969</v>
+        <v>0.2513876561324928</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9850184725278853</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4432730164320777</v>
+        <v>0.496103396553518</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.058547128253705</v>
+        <v>-2.009997609134809</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2335560887982249</v>
+        <v>0.2173495549891383</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9072602521192051</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2761310911291225</v>
+        <v>0.3239695668277461</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.984399315980952</v>
+        <v>-1.936743346293692</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2142630133249573</v>
+        <v>0.1889340990438732</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8301211937570075</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08090076065326587</v>
+        <v>0.1520416038827922</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.935257017337147</v>
+        <v>-1.872577152794437</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1397333984764319</v>
+        <v>0.1234597024551635</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.752945828030082</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.03206754028461288</v>
+        <v>0.03513701329182362</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.866000366168939</v>
+        <v>-1.82515041065745</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1222756034534366</v>
+        <v>0.1109091290657124</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6749741052102499</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1633287837534867</v>
+        <v>-0.1002036045430491</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.790427546959459</v>
+        <v>-1.745458795783516</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0724120410527227</v>
+        <v>0.0578261606245448</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5947775783236608</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2715037468089122</v>
+        <v>-0.202423031435658</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.762005520797785</v>
+        <v>-1.721005910356977</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02714763013837122</v>
+        <v>0.01814351356173727</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5137035664384197</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3890755793774261</v>
+        <v>-0.3093846945275384</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.714559798035616</v>
+        <v>-1.665756230548902</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02319527995628137</v>
+        <v>0.01232960206373883</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4316522484124431</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4342874285605049</v>
+        <v>-0.3669412503192502</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.717583557631888</v>
+        <v>-1.660266449727085</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.04020000815097434</v>
+        <v>-0.04586061459942736</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3506302760750807</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5496691889926557</v>
+        <v>-0.4755191866477665</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.713253054994252</v>
+        <v>-1.652211364409542</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.04537587863324567</v>
+        <v>-0.04659501878915444</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2728308832783439</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5598442641381984</v>
+        <v>-0.5213267354519361</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.691264730745167</v>
+        <v>-1.641617255461908</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07902122684014573</v>
+        <v>-0.08161427224959958</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2001078491466411</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6883854380137093</v>
+        <v>-0.6451811549556301</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.679320077313443</v>
+        <v>-1.62902288062973</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1101494521383192</v>
+        <v>-0.1024593788435031</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1353942734900639</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7681843664223243</v>
+        <v>-0.7251246281252449</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.634660126308728</v>
+        <v>-1.59471905073383</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1284774358234961</v>
+        <v>-0.128094903223678</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.07958877408730108</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8958611918280173</v>
+        <v>-0.8611748293322994</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.681466348007079</v>
+        <v>-1.631410059258365</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1252302888693151</v>
+        <v>-0.1305112828141319</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.03358313999777138</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9684577030041797</v>
+        <v>-0.9316396702957349</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.643445235671726</v>
+        <v>-1.60964658241528</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1721606146553935</v>
+        <v>-0.1664781074855768</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.003126465748621821</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.090503122923238</v>
+        <v>-1.046647658416613</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.653871439088905</v>
+        <v>-1.619694633376914</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1954279410321145</v>
+        <v>-0.1933167114926605</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.03203373023780059</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.118156433765048</v>
+        <v>-1.088942331514056</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.65879618129954</v>
+        <v>-1.614101189140643</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.216448253396927</v>
+        <v>-0.2059461274790207</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.05447576614250028</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.213501954245659</v>
+        <v>-1.173410493717397</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.691910072001349</v>
+        <v>-1.664245080774811</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2637815524560961</v>
+        <v>-0.2672009850850043</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.07218375232525036</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.269816009112008</v>
+        <v>-1.223859535402566</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.682968737492624</v>
+        <v>-1.667975503647083</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3135633521637191</v>
+        <v>-0.3095613603465384</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.08617634021951869</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.352248864276622</v>
+        <v>-1.281960689132186</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.74883880711397</v>
+        <v>-1.71689587498107</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3333119626413502</v>
+        <v>-0.3282251550926243</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.09763105320761672</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.429050313954601</v>
+        <v>-1.345716609117896</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.770088347029055</v>
+        <v>-1.744251336012335</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3801678259747922</v>
+        <v>-0.3746576044797027</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1076220367362305</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.458300917407866</v>
+        <v>-1.360609099645165</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.847592079838762</v>
+        <v>-1.828577873550858</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3810905763682464</v>
+        <v>-0.3704964674206129</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1168681254446102</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.479616159487042</v>
+        <v>-1.384410803623159</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.954482200574188</v>
+        <v>-1.944169880908099</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4123370655617835</v>
+        <v>-0.4000493008286959</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1259981943305451</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.511960604844943</v>
+        <v>-1.421262417437694</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.021961243191715</v>
+        <v>-2.013874036816172</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3891953033208806</v>
+        <v>-0.3737217136534302</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1354410076373903</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.534604490686846</v>
+        <v>-1.446843920038506</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.132999360553412</v>
+        <v>-2.129573357708095</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4598119892857708</v>
+        <v>-0.4445909879380476</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1452618447375141</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.527134884653757</v>
+        <v>-1.440213841657689</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.283565359880281</v>
+        <v>-2.277985786100873</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4737423081211307</v>
+        <v>-0.4648491551994058</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1550839371842747</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.540276777520026</v>
+        <v>-1.468105140338318</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.407638056573566</v>
+        <v>-2.411372129566065</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4890961738451265</v>
+        <v>-0.4811184710764014</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1642267507336608</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.586012783967741</v>
+        <v>-1.505136340068036</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.572378932791022</v>
+        <v>-2.589426454300471</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5552918341907451</v>
+        <v>-0.5390590195160222</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1719100661154851</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.592353772826558</v>
+        <v>-1.514422245926215</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.66112576592477</v>
+        <v>-2.6886476724384</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5690002257162868</v>
+        <v>-0.55751694748129</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.177674242322016</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.573527912742381</v>
+        <v>-1.498436179378855</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.78396107186101</v>
+        <v>-2.818624803611319</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.569591545193105</v>
+        <v>-0.5743892632198309</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1811116421993089</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.619490226644187</v>
+        <v>-1.554715193091022</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.913932362841567</v>
+        <v>-2.960980952523008</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5734825733553766</v>
+        <v>-0.5858316601082824</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1822993718679115</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.506962860229762</v>
+        <v>-1.434716760595418</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.979793672174367</v>
+        <v>-3.030504062467808</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6158239679917289</v>
+        <v>-0.621754683337</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1811686909640083</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.382906954089523</v>
+        <v>-1.328997598428901</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.032472207294353</v>
+        <v>-3.097638533735881</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6059832438590043</v>
+        <v>-0.6112423370824573</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1772003273841954</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.272319991587916</v>
+        <v>-1.220355419984385</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.115083918350103</v>
+        <v>-3.179269092474541</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5664977032884694</v>
+        <v>-0.5885765505191908</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1699954051336728</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.116351814324685</v>
+        <v>-1.089743897915965</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.154470905674502</v>
+        <v>-3.242716942313069</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5862287931890096</v>
+        <v>-0.6021476975241871</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.159015879294504</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9052785020143784</v>
+        <v>-0.8878192469432922</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.222460965123847</v>
+        <v>-3.310751533229187</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5882772406605544</v>
+        <v>-0.5980814635910063</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.143703886709143</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6886745275357093</v>
+        <v>-0.6825744466118927</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.241243753789342</v>
+        <v>-3.357588415937447</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5452233425558387</v>
+        <v>-0.5652683427959243</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1235049146839389</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4311775261268693</v>
+        <v>-0.4260877984819616</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.280567959045832</v>
+        <v>-3.410243590287978</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5077833293606669</v>
+        <v>-0.5258251436200257</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.09804447961050579</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1495181888615814</v>
+        <v>-0.1712130434443937</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.227354316300528</v>
+        <v>-3.361080120946855</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4712003643948586</v>
+        <v>-0.4804643695316743</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.0673140436121651</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1273127693670716</v>
+        <v>0.1223909472526184</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.200896784845171</v>
+        <v>-3.362758446227355</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4450071016439566</v>
+        <v>-0.4625159983501337</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.03186814389103542</v>
       </c>
       <c r="E84" t="n">
-        <v>0.470869385398343</v>
+        <v>0.4465625047808949</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.154059902136911</v>
+        <v>-3.30788764889887</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4029533364815133</v>
+        <v>-0.4152352610222373</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.007167876480733388</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7320077467459092</v>
+        <v>0.7325114633372727</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.04436502901885</v>
+        <v>-3.235433492411571</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.362051549262797</v>
+        <v>-0.3728763458087941</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.04819197777709439</v>
       </c>
       <c r="E86" t="n">
-        <v>1.004950596908472</v>
+        <v>0.9887090219452039</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.932285897368334</v>
+        <v>-3.156400359226637</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2769000845529108</v>
+        <v>-0.295942031754542</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.08932749559277048</v>
       </c>
       <c r="E87" t="n">
-        <v>1.195148141614967</v>
+        <v>1.177304893895971</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.798232311925597</v>
+        <v>-3.046439027331985</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2430474095171017</v>
+        <v>-0.2618907901783694</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1281597338850427</v>
       </c>
       <c r="E88" t="n">
-        <v>1.36426405193683</v>
+        <v>1.348291125822289</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.569606301466386</v>
+        <v>-2.819019016595865</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2430415693247381</v>
+        <v>-0.2600861707380062</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1620321376012331</v>
       </c>
       <c r="E89" t="n">
-        <v>1.517125246862608</v>
+        <v>1.487497951001888</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.326995950392451</v>
+        <v>-2.583234390346928</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1703355545417576</v>
+        <v>-0.1885000128407527</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1879648673447038</v>
       </c>
       <c r="E90" t="n">
-        <v>1.636757207287393</v>
+        <v>1.617665618450671</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.038906561334801</v>
+        <v>-2.296068481706778</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1681411022611218</v>
+        <v>-0.1757596331994834</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2030109787912642</v>
       </c>
       <c r="E91" t="n">
-        <v>1.698406277877923</v>
+        <v>1.654707038517025</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.751036179490788</v>
+        <v>-2.005763469671174</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1093916871791376</v>
+        <v>-0.104875758433957</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2053389553766377</v>
       </c>
       <c r="E92" t="n">
-        <v>1.680640412707745</v>
+        <v>1.616151548580399</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.409212640543425</v>
+        <v>-1.637364135373091</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1232095823114975</v>
+        <v>-0.1149238093955906</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1944296562820636</v>
       </c>
       <c r="E93" t="n">
-        <v>1.720185815250008</v>
+        <v>1.645625539391573</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.068037362948426</v>
+        <v>-1.291820393890093</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1493079419364905</v>
+        <v>-0.1442809963594918</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1713508423427128</v>
       </c>
       <c r="E94" t="n">
-        <v>1.69300409994156</v>
+        <v>1.591524917431042</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8424102912679408</v>
+        <v>-1.0294497519538</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1473660779755819</v>
+        <v>-0.1471777317718547</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1383102053607771</v>
       </c>
       <c r="E95" t="n">
-        <v>1.694592632264469</v>
+        <v>1.584446604286317</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.568214719843378</v>
+        <v>-0.7216628541017004</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2068557374396569</v>
+        <v>-0.2049328541039301</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09835192970246243</v>
       </c>
       <c r="E96" t="n">
-        <v>1.612708755182036</v>
+        <v>1.480035645209254</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3067814287814482</v>
+        <v>-0.4267389799305069</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2328270728807408</v>
+        <v>-0.2285345314934692</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0563164729079239</v>
       </c>
       <c r="E97" t="n">
-        <v>1.490774298917887</v>
+        <v>1.356901029414378</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1384948257752207</v>
+        <v>-0.2113015838764739</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3262044485348066</v>
+        <v>-0.3354465529502587</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01553922429643223</v>
       </c>
       <c r="E98" t="n">
-        <v>1.399578235111639</v>
+        <v>1.286154399169397</v>
       </c>
       <c r="F98" t="n">
-        <v>0.01608922589782873</v>
+        <v>-0.04388078938815516</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3166893151263546</v>
+        <v>-0.3446477760191653</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.02043811049702925</v>
       </c>
       <c r="E99" t="n">
-        <v>1.255230580603951</v>
+        <v>1.129120386799803</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1140555327016206</v>
+        <v>0.07744482682208498</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3336068923557137</v>
+        <v>-0.3565515481043439</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.0533003657494476</v>
       </c>
       <c r="E100" t="n">
-        <v>1.09764028991172</v>
+        <v>0.958275779538303</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1827478752826931</v>
+        <v>0.1790043119776032</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3649964662621599</v>
+        <v>-0.3956530960269698</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.0823940198687084</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9448155961882158</v>
+        <v>0.7855389499509857</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2319733966676799</v>
+        <v>0.2282882352862263</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3171550704673545</v>
+        <v>-0.3620778301284334</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1157329031646612</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8342432341675181</v>
+        <v>0.6843619973952857</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2522169634481289</v>
+        <v>0.2454554807391308</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3410414572346208</v>
+        <v>-0.3761526937247932</v>
       </c>
     </row>
   </sheetData>
